--- a/documentation/3_1_Modele_Journal - Julie.xlsx
+++ b/documentation/3_1_Modele_Journal - Julie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306\Explorations-de-galeries-speleologiques\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54A3290-03F5-40B4-89E2-5A6679B977CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147FD293-F2EE-45E5-B0E4-D0AEE5B1960B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,100 +466,100 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1197,7 +1197,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12:D12"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1248,7 +1248,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="A6" s="26">
         <v>46000</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -1260,43 +1260,43 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1305,49 +1305,49 @@
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
-        <v>2.65</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1360,43 +1360,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1409,43 +1409,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1458,43 +1458,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1507,43 +1507,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1556,43 +1556,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1605,43 +1605,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -1654,43 +1654,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -1703,43 +1703,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -1752,43 +1752,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -1801,10 +1801,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1814,53 +1814,51 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>2.65</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
@@ -1877,38 +1875,40 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2032,17 +2032,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2255,6 +2244,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
@@ -2264,19 +2264,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2293,4 +2280,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal - Julie.xlsx
+++ b/documentation/3_1_Modele_Journal - Julie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306\Explorations-de-galeries-speleologiques\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147FD293-F2EE-45E5-B0E4-D0AEE5B1960B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E515B6-A0B2-4CDF-8909-2CD59840E36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_NOM_PRENOM" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -121,6 +121,24 @@
   </si>
   <si>
     <t xml:space="preserve">Cette semaine, je me suis sentie un peu perdue, j'ai l'impression que y'a quelques choses floues à propos du projet. Mais j'ai confiance que ça va s'améliorer, j'ai déjà l'impression que ça va mieux avec la manette vu que j'ai expérimenté </t>
+  </si>
+  <si>
+    <t>Implémentation de la manette avec JXInput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Scrum </t>
+  </si>
+  <si>
+    <t>Documentation SCRUM</t>
+  </si>
+  <si>
+    <t>Documentation projet + planning</t>
+  </si>
+  <si>
+    <t>IHM avec Cyril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aujourd'hui, j'ai été très motivée, on a réussi à implémenter une grosse partie du projet donc ça m'a redonné l'impression qu'on arriverait à finir. J'ai aussi avancé la documentation et j'ai essayé d'aider Cyril avec l'IHM. En gros, aujourd'hui c'est bien passé, j'ai hâte de demain pour continuer. </t>
   </si>
 </sst>
 </file>
@@ -466,6 +484,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -502,6 +524,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -514,52 +540,44 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1197,7 +1215,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1248,7 +1266,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="36">
         <v>46000</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -1260,43 +1278,43 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8">
         <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1309,45 +1327,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="14">
+        <v>46006</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="8">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="8">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1356,47 +1396,49 @@
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1409,43 +1451,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1458,43 +1500,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1507,43 +1549,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1556,43 +1598,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1605,43 +1647,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -1654,43 +1696,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -1703,43 +1745,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -1752,43 +1794,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -1801,10 +1843,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1814,19 +1856,85 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>3.45</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -1843,72 +1951,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2032,6 +2074,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2244,17 +2297,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
@@ -2264,6 +2306,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2280,17 +2335,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal - Julie.xlsx
+++ b/documentation/3_1_Modele_Journal - Julie.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306\Explorations-de-galeries-speleologiques\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88af139bd926b298/Documents/emf/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E515B6-A0B2-4CDF-8909-2CD59840E36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{95E515B6-A0B2-4CDF-8909-2CD59840E36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDEA4A9C-5751-49CA-A5B6-9B9F5C72CEE6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Journal_NOM_PRENOM" sheetId="8" r:id="rId1"/>
+    <sheet name="Journal_LEFORT_JULIE" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal_NOM_PRENOM!$A$5:$HI$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal_NOM_PRENOM!$B:$D,Journal_NOM_PRENOM!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal_NOM_PRENOM!$A$1:$D$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal_LEFORT_JULIE!$A$5:$HI$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal_LEFORT_JULIE!$B:$D,Journal_LEFORT_JULIE!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal_LEFORT_JULIE!$A$1:$D$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,42 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
-  </si>
-  <si>
-    <r>
-      <t>Projet :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Titre du projet]      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                      </t>
-    </r>
-  </si>
-  <si>
-    <t>[Nom Prénom du candidat]</t>
   </si>
   <si>
     <t>Date</t>
@@ -102,9 +69,6 @@
     </r>
   </si>
   <si>
-    <t>[no candidat]</t>
-  </si>
-  <si>
     <t>Total général &gt;</t>
   </si>
   <si>
@@ -139,6 +103,24 @@
   </si>
   <si>
     <t xml:space="preserve">Aujourd'hui, j'ai été très motivée, on a réussi à implémenter une grosse partie du projet donc ça m'a redonné l'impression qu'on arriverait à finir. J'ai aussi avancé la documentation et j'ai essayé d'aider Cyril avec l'IHM. En gros, aujourd'hui c'est bien passé, j'ai hâte de demain pour continuer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projet: Exploration de galeries spéléologiques  </t>
+  </si>
+  <si>
+    <t>Lefort Julie</t>
+  </si>
+  <si>
+    <t>Documentation générale du projet</t>
+  </si>
+  <si>
+    <t>Réunion client + SCRUM</t>
+  </si>
+  <si>
+    <t>Schéma d'activité</t>
+  </si>
+  <si>
+    <t>J'aimerais bien qu'on se soit rendus compte plus tôt que la manière qu'on fait les réunions SCRUM n'est pas la bonne vu que ça nous aurait permis de gagner un peu du temps. Je suis contente qu'on ait déjà bien avancé le projet (fini v1 et commencé v2), mais j'ai l'impression de pas être très utile vu que j'ai quasiment rien codé, j'ai seulement fait la documentation. Mais la réunion client c'est bien passée donc c'est bien et maintenant nous avons des pistes pour améliorer notre manière de travailler. On verra comment ca se passe la prochaine fois, mais je suis toujours motivée pour finir ce projet.</t>
   </si>
 </sst>
 </file>
@@ -149,7 +131,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -157,12 +139,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -435,20 +411,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -456,23 +432,23 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -480,11 +456,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -496,31 +472,31 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -528,19 +504,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -560,19 +540,19 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1213,653 +1193,667 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="3" width="31.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.109375" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
         <v>46000</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="33"/>
+      <c r="B6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="34"/>
       <c r="D6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="8">
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="8">
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
         <v>3.45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>46006</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="8">
         <v>3.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>46007</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="C22" s="19"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
       <c r="D40" s="26"/>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="16"/>
       <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
       <c r="D61" s="26"/>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="16"/>
       <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D67" s="9">
         <f>SUM(D62:D66)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="20"/>
       <c r="C68" s="21"/>
       <c r="D68" s="22"/>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="16"/>
       <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D74" s="9">
         <f>SUM(D69:D73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
       <c r="D75" s="26"/>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="16"/>
       <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D81" s="9">
         <f>SUM(D76:D80)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="24"/>
       <c r="C82" s="25"/>
       <c r="D82" s="26"/>
     </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>0</v>
       </c>

--- a/documentation/3_1_Modele_Journal - Julie.xlsx
+++ b/documentation/3_1_Modele_Journal - Julie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88af139bd926b298/Documents/emf/Explorations-de-galeries-speleologiques/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306\Explorations-de-galeries-speleologiques\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{95E515B6-A0B2-4CDF-8909-2CD59840E36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDEA4A9C-5751-49CA-A5B6-9B9F5C72CEE6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3519A6-839B-4541-82B0-A327835A4CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_LEFORT_JULIE" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>J'aimerais bien qu'on se soit rendus compte plus tôt que la manière qu'on fait les réunions SCRUM n'est pas la bonne vu que ça nous aurait permis de gagner un peu du temps. Je suis contente qu'on ait déjà bien avancé le projet (fini v1 et commencé v2), mais j'ai l'impression de pas être très utile vu que j'ai quasiment rien codé, j'ai seulement fait la documentation. Mais la réunion client c'est bien passée donc c'est bien et maintenant nous avons des pistes pour améliorer notre manière de travailler. On verra comment ca se passe la prochaine fois, mais je suis toujours motivée pour finir ce projet.</t>
+  </si>
+  <si>
+    <t>Schéma de séquence</t>
+  </si>
+  <si>
+    <t>Merge des branches avec Cyril</t>
+  </si>
+  <si>
+    <t>Réunion sprint planning + démo</t>
+  </si>
+  <si>
+    <t>Exercice en classe + théories</t>
   </si>
 </sst>
 </file>
@@ -1193,21 +1205,21 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="3" width="31.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.109375" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
@@ -1215,7 +1227,7 @@
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>20</v>
       </c>
@@ -1223,7 +1235,7 @@
       <c r="C2" s="36"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -1243,7 +1255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <v>46000</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="18" t="s">
         <v>9</v>
@@ -1265,7 +1277,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="18" t="s">
         <v>10</v>
@@ -1275,7 +1287,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="18" t="s">
         <v>11</v>
@@ -1285,13 +1297,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -1304,7 +1316,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="20" t="s">
         <v>12</v>
@@ -1312,7 +1324,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>46006</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="18" t="s">
         <v>14</v>
@@ -1334,7 +1346,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="18" t="s">
         <v>15</v>
@@ -1344,7 +1356,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="18" t="s">
         <v>16</v>
@@ -1354,7 +1366,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="18" t="s">
         <v>17</v>
@@ -1364,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -1377,7 +1389,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="20" t="s">
         <v>18</v>
@@ -1385,7 +1397,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>46007</v>
       </c>
@@ -1397,7 +1409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="18" t="s">
         <v>22</v>
@@ -1407,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="18" t="s">
         <v>23</v>
@@ -1417,19 +1429,19 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
@@ -1442,7 +1454,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -1450,37 +1462,59 @@
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>46027</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="C28" s="19"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="C29" s="19"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="C30" s="19"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="8">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
+      <c r="B31" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="C31" s="19"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
@@ -1490,46 +1524,46 @@
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
@@ -1542,43 +1576,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
       <c r="D40" s="26"/>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
@@ -1591,43 +1625,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
@@ -1640,43 +1674,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="16"/>
       <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
@@ -1689,43 +1723,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
       <c r="D61" s="26"/>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="16"/>
       <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
@@ -1738,43 +1772,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="20"/>
       <c r="C68" s="21"/>
       <c r="D68" s="22"/>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="B69" s="16"/>
       <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
@@ -1787,43 +1821,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
       <c r="D75" s="26"/>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14"/>
       <c r="B76" s="16"/>
       <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
@@ -1836,13 +1870,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="23"/>
       <c r="B82" s="24"/>
       <c r="C82" s="25"/>
       <c r="D82" s="26"/>
     </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -1850,10 +1884,10 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>14.45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>0</v>
       </c>

--- a/documentation/3_1_Modele_Journal - Julie.xlsx
+++ b/documentation/3_1_Modele_Journal - Julie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306\Explorations-de-galeries-speleologiques\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3519A6-839B-4541-82B0-A327835A4CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FA6A6D-C3F5-47A5-8FE4-503771603A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -133,6 +133,33 @@
   </si>
   <si>
     <t>Exercice en classe + théories</t>
+  </si>
+  <si>
+    <t>Résolution des conflits du code</t>
+  </si>
+  <si>
+    <t>Séance SCRUM</t>
+  </si>
+  <si>
+    <t>Présentation + Websummary</t>
+  </si>
+  <si>
+    <t>Je suis contente que le code se passe bien, j'ai bien aimé le fait de faire l'IHM ca change un peu</t>
+  </si>
+  <si>
+    <t>Définition des seuils d'erreurs pour les capteurs</t>
+  </si>
+  <si>
+    <t>Diagramme d'activité</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>J'ai enfin codé un peu, ca m'a fait plaisir de pouvoir changer un peu d'activité à faire. Toujours motivée car le projet avance bien, le fil d'Ariane fonctionne donc c'est bien car c'est ce qui m'inquiétait un peu.</t>
+  </si>
+  <si>
+    <t>J'ai eu un peu peur car je pe</t>
   </si>
 </sst>
 </file>
@@ -218,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -419,11 +446,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -472,104 +536,151 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1205,9 +1316,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1256,7 +1367,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37">
+      <c r="A6" s="26">
         <v>46000</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -1268,43 +1379,43 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8">
         <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1317,67 +1428,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>46006</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1390,59 +1501,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>46007</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1455,67 +1566,67 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>46027</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8">
         <v>1.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="19"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8">
         <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1528,92 +1639,124 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="13">
+        <v>46028</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="8"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="8"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="8"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="46"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="49">
         <f>SUM(D34:D38)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="13">
+        <v>46034</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="8"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="8">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="8"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="8">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1622,47 +1765,49 @@
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1675,43 +1820,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1724,43 +1869,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1773,43 +1918,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1822,43 +1967,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1871,10 +2016,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -1882,87 +2027,26 @@
       <c r="C83" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="12">
-        <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>21.95</v>
+      <c r="D83" s="12" t="e">
+        <f>D11+D18+D25+D32+D46+#REF!+D53+D60+D67+D74+D81</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -1979,6 +2063,67 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2012,19 +2157,11 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D39">
+  <conditionalFormatting sqref="D41:D46">
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2102,17 +2239,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2325,6 +2451,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
@@ -2334,19 +2471,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2363,4 +2487,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Modele_Journal - Julie.xlsx
+++ b/documentation/3_1_Modele_Journal - Julie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306\Explorations-de-galeries-speleologiques\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FA6A6D-C3F5-47A5-8FE4-503771603A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAD06F2-0136-40DC-AC6E-FBFC4B09ADA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
     <t>J'ai enfin codé un peu, ca m'a fait plaisir de pouvoir changer un peu d'activité à faire. Toujours motivée car le projet avance bien, le fil d'Ariane fonctionne donc c'est bien car c'est ce qui m'inquiétait un peu.</t>
   </si>
   <si>
-    <t>J'ai eu un peu peur car je pe</t>
+    <t>Le code a eu pas mal de conflit aujourd'hui lors des merge donc j'ai eu un peu peur qu'on perde du travail, mais au final tout fonctionne. On a meme ajouté des nouvelles fonctionnalités ce qui est sympa mais j'aurais préféré qu'on finisse la doc avant de partir sur des améliorations. Je reste quand même satisfaite de notre travail et j'ai hate de pouvoir le présenter</t>
   </si>
 </sst>
 </file>
@@ -536,6 +536,45 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -572,6 +611,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -584,58 +627,50 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -646,70 +681,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1318,7 +1296,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47:D47"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1331,91 +1309,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="46">
         <v>46000</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="8">
         <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1428,67 +1406,67 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="23">
         <v>46006</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1501,59 +1479,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="23">
         <v>46007</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1566,67 +1544,67 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="23">
         <v>46027</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="8">
         <v>1.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="8">
         <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1639,124 +1617,124 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="23">
         <v>46028</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43">
+      <c r="C34" s="17"/>
+      <c r="D34" s="13">
         <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="44" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46">
+      <c r="C35" s="19"/>
+      <c r="D35" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="44" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46">
+      <c r="C36" s="19"/>
+      <c r="D36" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="46"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="49">
+      <c r="D39" s="15">
         <f>SUM(D34:D38)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="38" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="A41" s="23">
         <v>46034</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17" t="s">
+      <c r="A42" s="24"/>
+      <c r="B42" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="18"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="24"/>
+      <c r="B43" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="8">
         <v>6.8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1769,45 +1747,45 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="32"/>
+      <c r="B47" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1820,43 +1798,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1869,43 +1847,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="28"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="28"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1918,43 +1896,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="31"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1967,43 +1945,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="28"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="28"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -2016,10 +1994,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2033,20 +2011,76 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -2063,105 +2097,49 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D46">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2239,6 +2217,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2451,17 +2440,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
@@ -2471,6 +2449,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2487,17 +2478,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>